--- a/Data/anlaysData_2D.xlsx
+++ b/Data/anlaysData_2D.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12960" activeTab="1"/>
+    <workbookView windowWidth="27945" windowHeight="14760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="anlaysData" sheetId="1" r:id="rId1"/>
@@ -31,6 +31,12 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="35">
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>2D</t>
     </r>
     <r>
@@ -60,6 +66,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>4D</t>
     </r>
     <r>
@@ -1438,7 +1450,7 @@
   <sheetPr/>
   <dimension ref="A1:P720"/>
   <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="60" workbookViewId="0">
+    <sheetView zoomScaleSheetLayoutView="60" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
@@ -26463,8 +26475,8 @@
   <sheetPr/>
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F26" sqref="A1:F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/Data/anlaysData_2D.xlsx
+++ b/Data/anlaysData_2D.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="14760" activeTab="1"/>
+    <workbookView windowWidth="27945" windowHeight="12960" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="anlaysData" sheetId="1" r:id="rId1"/>
@@ -26476,7 +26476,7 @@
   <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F26" sqref="A1:F26"/>
+      <selection activeCell="H34" sqref="$A2:$XFD2 H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
